--- a/data/trans_bre/P38A-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Clase-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 5,2</t>
+          <t>-3,44; 5,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 10,53</t>
+          <t>2,23; 10,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 6,76</t>
+          <t>-2,16; 6,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 5,92</t>
+          <t>-3,65; 5,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 12,51</t>
+          <t>2,52; 12,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 7,98</t>
+          <t>-2,35; 7,5</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 7,37</t>
+          <t>-0,27; 7,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 7,21</t>
+          <t>-2,51; 6,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 4,9</t>
+          <t>-4,0; 4,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 8,43</t>
+          <t>-0,3; 8,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 8,56</t>
+          <t>-2,75; 7,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 5,63</t>
+          <t>-4,4; 5,41</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 5,58</t>
+          <t>-2,99; 5,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 9,42</t>
+          <t>-0,93; 8,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 72,44</t>
+          <t>2,09; 73,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 6,34</t>
+          <t>-3,29; 6,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 10,86</t>
+          <t>-0,93; 10,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 362,09</t>
+          <t>2,29; 363,98</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 4,0</t>
+          <t>-2,43; 3,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,05</t>
+          <t>-0,89; 5,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 12,33</t>
+          <t>3,74; 12,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,59</t>
+          <t>-2,71; 4,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,87</t>
+          <t>-1,01; 6,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 14,85</t>
+          <t>4,21; 15,19</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,93; 13,67</t>
+          <t>6,04; 13,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 11,1</t>
+          <t>3,86; 11,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 8,4</t>
+          <t>-22,95; 8,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 17,0</t>
+          <t>6,96; 17,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 13,79</t>
+          <t>4,53; 14,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 10,08</t>
+          <t>-26,96; 9,92</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,27; 42,07</t>
+          <t>28,87; 41,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,86; 40,84</t>
+          <t>28,31; 40,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,98; 50,81</t>
+          <t>29,43; 50,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>52,06; 94,76</t>
+          <t>50,6; 91,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,25; 85,69</t>
+          <t>47,27; 85,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>52,5; 148,42</t>
+          <t>54,06; 150,04</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,09</t>
+          <t>2,79; 6,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,65</t>
+          <t>4,55; 7,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,98; 28,29</t>
+          <t>3,66; 31,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,21</t>
+          <t>3,24; 7,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,16; 9,2</t>
+          <t>5,38; 9,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 46,79</t>
+          <t>4,4; 55,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38A-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
